--- a/doc/import/MA DON VI.xlsx
+++ b/doc/import/MA DON VI.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="6885"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="6885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ImportDonVi" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="79">
   <si>
     <t>MA</t>
   </si>
@@ -118,13 +118,148 @@
   </si>
   <si>
     <t xml:space="preserve"> CTY TNHH GIAÙM ĐỊNH VINACONTROL TP.HCM-CN CẦN THƠ</t>
+  </si>
+  <si>
+    <t>`id`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> `ma_donvi`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> `ten_donvi`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> `deleted_at`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> `created_at`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> `updated_at`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VL	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCM	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNG TÂM Y TẾ DỰ PHÒNG AN GIANG	</t>
+  </si>
+  <si>
+    <t>INSERT INTO `u883604362_store`.`store_donvi` (`id`, `ma_donvi`, `ten_donvi`, `deleted_at`, `created_at`, `updated_at`) VALUES (</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>','</t>
+  </si>
+  <si>
+    <t>',</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN LAO VÀ BỆNH PHỔI BẾN TRE	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNG TÂM PHÒNG CHỐNG BỆNH XÃ HỘI BẠC LIÊU	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNG TÂM PHÒNG CHỐNG BỆNH XÃ HỘI CÀ MAU	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIÊN LAO VÀ BỆNH PHỔI TP.CẦN THƠ	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN LAO &amp; BỆNH PHỔI HẬU GIANG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN 30 THÁNG 4 SÓC TRĂNG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN LAO &amp; BỆNH PHỔI TRÀ VINH	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN LAO &amp; BỆNH PHỔI VĨNH LONG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN LAO VÀ BỆNH PHỔI ĐỒNG THÁP	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN LAO VÀ BỆNH PHỔI TIỀN GIANG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN LAO VÀ BỆNH PHỔI LONG AN	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNG TÂM PHÒNG CHỐNG BỆNH XÃ HỘI KIÊN GIANG	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN LAO &amp; BỆNH PHỔI TÂY NINH	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BỆNH VIỆN PHẠM NGỌC THẠCH - TP HỒ CHÍ MINH	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTY TNHH GIÁM ĐỊNH VINACONTROL TP.HCM-CN CẦN THƠ	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,6 +320,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,7 +410,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -309,7 +444,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,21 +619,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -515,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -523,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16.5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -531,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -539,7 +673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -547,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16.5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -555,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16.5">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -563,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16.5">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -571,7 +705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16.5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -579,7 +713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16.5">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -587,7 +721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16.5">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -595,7 +729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16.5">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -603,7 +737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16.5">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -611,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16.5">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -619,7 +753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16.5">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -627,12 +761,717 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16.5">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -640,25 +1479,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
